--- a/인천보고서_202406.xlsx
+++ b/인천보고서_202406.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\sidogeumgo_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E49BA-81CC-40D8-A856-4A6304A37BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F440150-017A-4936-8FED-DA18CE870761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>품질관리 상세근거</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -129,23 +129,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>김그루</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>강민수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>23일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>29일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30일</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -185,158 +169,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>⊙ 회계별 자금운용현황 &gt; 회계편집 테이블 적용</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xSelectListICH040203By01.xml
-/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xSelectListICH040203By02.xml
-/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xSelectListICH040203By03.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⊙ 시/구공금 세입금 집계표 &gt; 충당금 반영</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xSelectListICH030204By01.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⊙ 세입금 수납일계표(총괄) &gt; 합계 출력 오류 수정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rpt/ui/tom/ich/rpt/xml/ICH030202M01.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⊙ 내부집계배치 데이터 생성 방식 변경</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xInsertBReportEaiAfterProcByStep2.xml
-/rpt/WEB-INF/classes/tom/ich/rpt/xda/xInsertBReportEaiAfterProcByStep2.class
-/rpt/WEB-INF/classes/tom/kwd/txi/xda/xUpdateKWD110103By01.xml
-/rpt/WEB-INF/classes/tom/kwd/txi/xda/xUpdateKWD110103By01.class</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>⊙ 강원도 도비세입금수납일계표 &gt; 도비세목 수정 시 세입세출일계 누락 오류 수정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rpt/WEB-INF/meta_xda/tom/kwd/txi/xda/xUpdateKWD110103By01.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/tom/kwd/mtask/MKWD140404Task.java
-/rpt/WEB-INF/meta_xda/tom/kwd/txi/xda/xSelectListKWD140404By05.xml
-/rpt/WEB-INF/classes/tom/kwd/txi/xda/xSelectListKWD140404By05.class</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⊙ 원주시 회계이월 방식 수정</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>⊙ 세입세출일계 &gt; 충당금 반영, 그리드 정렬 및 복사 기능 추가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rpt/ui/tom/ich/rpt/xml/ICH030303M01.xml
-/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xSelectListICH030303By01.xml
-/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xSelectListICH030303By02.xml
-/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xSelectListICH030303By07.xml
-/rpt/WEB-INF/meta_xda/tom/ich/rpt/xda/xSelectListICH030303By08.xml
-/rpt/WEB-INF/classes/tom/ich/rpt/xda/xSelectListICH030303By01.class
-/rpt/WEB-INF/classes/tom/ich/rpt/xda/xSelectListICH030303By02.class
-/rpt/WEB-INF/classes/tom/ich/rpt/xda/xSelectListICH030303By07.class
-/rpt/WEB-INF/classes/tom/ich/rpt/xda/xSelectListICH030303By08.class</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⊙ 수납집계 충당금 관련 배치 CRT_CAN_G 설정 값에 따른 음/양수 로직 변경 (2, 33 음수 치환 로직 추가) </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rpt/proworks/meta_xda/tom/rpt/xda/xInsertBReportEaiAfterProcByStep11_2.xml
-/rpt/proworks/meta_xda/classes/tom/rpt/xda/xInsertBReportEaiAfterProcByStep11_2.class</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.자금현황표 관리계좌 현행화
-2.원주시 세입세출일계표와 회계이월 데이터 관계 분석 요청 처리
-3.원주시 회계이월 방식 분석 요청 처리 
-4.강원도 통합공금 데이터 분석 요청 처리 
-5.2/20일 미추홀구청 일반회계 과오납반환건 4/29일자에 기산일취소 보고서 반영여부 확인요청 건 확인 후 피드백
-6.타구시도,은행조정명세 신/구 시스템 차이 확인 요청 건 확인 후 피드백
-7.원주시 회계별 자금현황 개발 검증
-8.인천시 세입월계표(분기보) 2월말의 누계 수입액과 3월말의 전월수입액 불일치 원인 분석
-9.체크인 점검문서 및 산출물 양식 생성
-10.춘천시 일괄잔액 대사표 회계명 표시 오류원인 분석
-11.세입금 수납일계표 (총괄) 구공금 일반회계 1월분 강화군/옹진군 데이터 정합성 확인 요청 분석 후 피드백
-12.타 구/시/도, 은행 조정 -&gt; 조정금액  --&gt; 이체총괄 조회 반영 여부 확인 요청 분석 후 피드백
-13.세입금수납일계표(총괄) -&gt; 합계부분 수정 요청 분석 후 피드백
-14.충당금 반영 대상 화면 분석서 작성 
-15.원주시 보고서 전체 점검 및 금액 불일치 메뉴 정리
-16.10일 자원사용 모니터링 기능 가능여부 검토
-17.충당금 반영 대상 화면 설계서 작성
-18.충당금 반영된 자금정산표 작성 후 전달
-19.계정 권한에 따른 공금예금 거래내역 관련 조회 계좌 문의 분석 후 피드백
-20.계좌 권한 추가 요청 건 처리
-21.계좌별 잔액현황 &gt; 출력  시 특정계좌 출력 컬럼 오류 추적 및 해당사항 수정
-22.춘천시 일괄잔액대사표 &gt; 검색조건에 따른 출력화면 정상 작동 테스트 지원
-23.충당금 반영된 3월 자금정산표 작성 및 검증
-24.체크인 이행 후 검증 지원
-25.자금정산표, 세입세출일계 - 데이터 잔액 상이 원인 추적 및 배치 재처리
-26.공금잔액 통단/보고서 금액 상이 건 배치 비지니스로직 분석 및 피드백
-27.충당금 반영된 4월 자금정산표 작성 및 금액 검증
-28.인천시 충당금 세입세출일계표 적용 영향도 검토
-29.강릉시 공영개발특별회계 지출원배정금과 일상경비 감배정이 반영되는 방식 분석 요청 처리 
-30.인천시 자금정산표 수납분이체액과 조정입금분 2월분이 3월에도 반영되는 원인 분석 요청 처리 
-31.인천시 부평구청 계좌별 세입세출 자금일계표 데이터 문의 대응
-32.인천시 기금계좌 3/15 자금조정지급분 확인요청 처리 
-33.인천시 고향사랑기금 과오납 반환 대상 데이터 확인 요청 처리
-34.강원도 비목등록시 세입세출일계표 데이터가 조회되지 않는 원인 분석 처리 
-35.인천시 경제자유구역청 5/9일 기산일 취소와 기산일 입금 처리 데이터 확인 요청 처리
-36.강원도 세입세출일계 미반영 건 배치 재처리
-37.원주시 세입세출일계표 공영개발 특별회계 자금운용내역이 조회되지 않는 원인 분석 요청 처리 
-38.회계별 자금운용 명세표의 900번대 회계가 조회되는 원인 분석 요청 처리 
-39.소방특별회계 데이터 분석 요청 처리 
-40.강원도 세입세출일계 미반영 건 배치 재처리
-41.SGA 솔루션 점검 및 로그 확인
-42.업무공유 방식 조정 및 진행중인 업무 우선 순위 조정
-43.세입보고서 회계연도 구분 사용방식 분석 및 문서작성
-44.세입보고서 회계연도 사용방식의 문제점 및 의견공유 회의
-45.정산시스템 관련 보고서의 ASIS 분석 및 문의 답변 처리
-46.충당금 반영 공수 산정 및 작업계획서 작성 
-47.정산시스템 프로젝트 관련 회의 참석
-48.세입월계표(분기보) 관련 회계별 담당자 검증   </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자금정산개선에 따른 보고서 관련 범위 분석 및 공수산정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.넥스트 코어관련 전문 모니터링 및 재처리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.회계연도구분 관련 메뉴 분석 및 구분별 조건 정리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>김그루</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.관련 화면별 기능분석 및 공수산정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -370,6 +203,63 @@
   <si>
     <t>1.사용자 인증 방식 보안 강화
 2.클립리포트 접근 보안 강호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예금 잔액 관련 거래내역 분석 및 정리 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.과오납결의 취소 관련 영향도 분석 및 개발 
+2.거래내역 수정 기능에 따른 영향도 분석 및 추가 개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.보고서 별 검증 및 기능 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.개정 훈령 분석 및 기능 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 인천시 세입월계표 검증 및 산출물 작성
+2.인천시 소방세입일계 2024.01.02 12,359원 확인 요청 처리
+3.자금정산관련 산출물 작성 정기예금 과목코드 추가 시 영향도 분석
+4.정기예금 코드 추가에 따른 영향도 확인
+5.원주시 세입세출일계표 분석 및 기능 개선
+6.세입세출일계표 개정 훈령 관련 공문 확인 및 분석
+7.강릉시 예금잔액 및 이자 현황 조회 대상 검증 및 조회방법 공유
+8.타 구/시/도, 은행조정 등록 실패 분석 및 임시 쿼리 생성 5일 원주시 보고서 개선건 검토 및 요구사항 분석
+9.원주시 회계별 자금운용명세표 개선 테스트 및 산출물 작성
+10.세입세출일계표 일반회계 구분 목록 점검 및 수정대상 확인
+11.거래내역 정정구분 추가 처리 대상 점검 요청 처리
+12.인천시 자금정산표 3/29 세입계좌잔액 항목 계산방법 확인 요청처리
+13.인천시 자금정산표 3/29 차액항목과 서구청 충당분 연관관계 확인요청 처리
+14.세입세출일계표 위변조 솔루션 비정상 처리 확인 및 수정
+15.지방재정전송파일-세입세출일게표 분석 요청 처리
+16.타 구/시/도, 은행조정 데이터 수동 삽입 쿼리 작성
+17.원주시 회계별 자금운용 명세 계좌별 공금 및 예금 잔액 검증
+18.인천시 상수도 6월3일, 6월4일 7100 상수도 본부 수납액 확인 요청 처리
+19.원주시 운용잔액 갱신 대상 확인 및 데이터 작성
+20.세입조정 시공금 과오납반환금액 불일치 원인 분석 요청 처리
+21.강화군 세입데이터 확인 요청 처리
+22.(강원)금고운용현황 제출 서식 분석 후 시도금고보고서 시스템 가이드
+23.(강원) 회계별 자금운용명세 130-000-80-90-00005-99 누락 원인 파악
+24.(인천) 세입조정 2024-05월, 260-서구청, 신년도 구공금 (1,927,687,670) 금액 노출 분석
+25.회계별 자금운용 명세표(강릉,원주) - 변경된 쿼리 이슈 분석 및 피드백
+26.계좌별 세입세출 자금일계표 세출합계 - 한도사용액 금액차이 분석 및 피드백
+27.세입세출일계표 기능 분석 요청 처리
+28.계좌 구분값 분석 및 정리
+29.인천시 중구청 세입세출일계표 5월31 저축성예금 불일치 원인 확인 요청처리
+30.공금예금 결산이자 조회 프로세스 분석 및 문서 작성
+31.지방재정관리시템 세입세출일계표 훈령 개정에 따른 수정 대상 분석
+32.자금대사 관련 합계 불일치 대상 확인 및 처리방안 분석
+33.위변조 솔루션 세로모드 비정상 조회 대상 검증
+34.강원도 통합공금 금액 불일치 원인 분석 및 처리
+35.계좌별 세입세출 자금일계표 항목별 거래구분 분석 처리
+36.세입세출일계표 훈령 변경에 따른 계좌별 세입세출자금일계표 분석문석 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -476,12 +366,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -756,28 +640,28 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,19 +712,19 @@
     <xf numFmtId="58" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,20 +742,20 @@
     <xf numFmtId="58" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -931,22 +815,22 @@
     <xf numFmtId="58" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B22"/>
     </sheetView>
   </sheetViews>
@@ -1305,7 +1189,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1393,18 +1277,10 @@
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="44"/>
-      <c r="B7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
@@ -1416,18 +1292,10 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="44"/>
-      <c r="B8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="15" t="s">
         <v>15</v>
       </c>
@@ -1439,18 +1307,10 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44"/>
-      <c r="B9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1462,18 +1322,10 @@
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="44"/>
-      <c r="B10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="15" t="s">
         <v>15</v>
       </c>
@@ -1485,18 +1337,10 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="44"/>
-      <c r="B11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="12"/>
@@ -1504,18 +1348,10 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44"/>
-      <c r="B12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="12"/>
@@ -1523,18 +1359,10 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44"/>
-      <c r="B13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="15" t="s">
         <v>15</v>
       </c>
@@ -1546,18 +1374,10 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="44"/>
-      <c r="B14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="12"/>
@@ -1619,21 +1439,21 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>15</v>
@@ -1646,40 +1466,40 @@
     <row r="20" spans="1:8" s="1" customFormat="1" ht="289.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="57" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="406.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="58"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
       <c r="E21" s="55"/>
       <c r="F21" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="167.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="59"/>
       <c r="C22" s="53"/>
@@ -1692,60 +1512,60 @@
     <row r="23" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="13" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="13" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="13" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1754,44 +1574,44 @@
     <row r="26" spans="1:8" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="20" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H27" s="26"/>
     </row>
